--- a/Data/ROY Data/rookies_90_91.xlsx
+++ b/Data/ROY Data/rookies_90_91.xlsx
@@ -936,73 +936,70 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>3200</v>
+        <v>290</v>
       </c>
       <c r="I2">
-        <v>620</v>
+        <v>55</v>
       </c>
       <c r="J2">
-        <v>1236</v>
+        <v>116</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="N2">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="O2">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>846</v>
+        <v>89</v>
       </c>
       <c r="Q2">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="R2">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="T2">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="U2">
-        <v>484</v>
+        <v>39</v>
       </c>
       <c r="V2">
-        <v>1465</v>
+        <v>135</v>
       </c>
       <c r="W2">
-        <v>0.502</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="Y2">
-        <v>0.701</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="Z2">
-        <v>12.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA2">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="AB2">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="AC2">
         <v>0.3</v>
@@ -1028,76 +1025,76 @@
         <v>21</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>586</v>
+        <v>67</v>
       </c>
       <c r="H3">
-        <v>15628</v>
+        <v>1505</v>
       </c>
       <c r="I3">
-        <v>3514</v>
+        <v>417</v>
       </c>
       <c r="J3">
-        <v>7943</v>
+        <v>1009</v>
       </c>
       <c r="K3">
-        <v>474</v>
+        <v>24</v>
       </c>
       <c r="L3">
-        <v>1339</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>1051</v>
+        <v>84</v>
       </c>
       <c r="N3">
-        <v>1161</v>
+        <v>98</v>
       </c>
       <c r="O3">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="P3">
-        <v>1087</v>
+        <v>121</v>
       </c>
       <c r="Q3">
-        <v>2079</v>
+        <v>206</v>
       </c>
       <c r="R3">
-        <v>487</v>
+        <v>55</v>
       </c>
       <c r="S3">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>963</v>
+        <v>110</v>
       </c>
       <c r="U3">
-        <v>1106</v>
+        <v>149</v>
       </c>
       <c r="V3">
-        <v>8553</v>
+        <v>942</v>
       </c>
       <c r="W3">
-        <v>0.442</v>
+        <v>0.413</v>
       </c>
       <c r="X3">
-        <v>0.354</v>
+        <v>0.24</v>
       </c>
       <c r="Y3">
-        <v>0.905</v>
+        <v>0.857</v>
       </c>
       <c r="Z3">
-        <v>26.7</v>
+        <v>22.5</v>
       </c>
       <c r="AA3">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="AB3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC3">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AD3" t="s">
         <v>150</v>
@@ -1120,76 +1117,76 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>486</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>7983</v>
+        <v>266</v>
       </c>
       <c r="I4">
-        <v>677</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>1688</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>275</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>774</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="N4">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="O4">
-        <v>525</v>
+        <v>30</v>
       </c>
       <c r="P4">
-        <v>1428</v>
+        <v>68</v>
       </c>
       <c r="Q4">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="R4">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="S4">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="T4">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="U4">
-        <v>1094</v>
+        <v>46</v>
       </c>
       <c r="V4">
-        <v>1852</v>
+        <v>86</v>
       </c>
       <c r="W4">
-        <v>0.401</v>
+        <v>0.42</v>
       </c>
       <c r="X4">
-        <v>0.355</v>
+        <v>0.24</v>
       </c>
       <c r="Y4">
-        <v>0.717</v>
+        <v>0.48</v>
       </c>
       <c r="Z4">
-        <v>16.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA4">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="AB4">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="AC4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" t="s">
         <v>150</v>
@@ -1212,73 +1209,73 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
         <v>12</v>
       </c>
-      <c r="J5">
-        <v>32</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="N5">
-        <v>20</v>
-      </c>
       <c r="O5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>1</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>7</v>
       </c>
       <c r="V5">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W5">
-        <v>0.375</v>
+        <v>0.316</v>
       </c>
       <c r="Y5">
-        <v>0.65</v>
+        <v>0.583</v>
       </c>
       <c r="Z5">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AA5">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD5" t="s">
         <v>150</v>
@@ -1390,76 +1387,76 @@
         <v>24</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>1045</v>
+        <v>214</v>
       </c>
       <c r="I7">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="J7">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="K7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="O7">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Q7">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="R7">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="U7">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="V7">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="W7">
-        <v>0.436</v>
+        <v>0.426</v>
       </c>
       <c r="X7">
-        <v>0.253</v>
+        <v>0.125</v>
       </c>
       <c r="Y7">
-        <v>0.667</v>
+        <v>0.714</v>
       </c>
       <c r="Z7">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD7" t="s">
         <v>150</v>
@@ -1482,73 +1479,70 @@
         <v>22</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>7372</v>
+        <v>750</v>
       </c>
       <c r="I8">
-        <v>881</v>
+        <v>103</v>
       </c>
       <c r="J8">
-        <v>1881</v>
+        <v>230</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>435</v>
+        <v>44</v>
       </c>
       <c r="N8">
-        <v>737</v>
+        <v>76</v>
       </c>
       <c r="O8">
-        <v>708</v>
+        <v>59</v>
       </c>
       <c r="P8">
-        <v>1726</v>
+        <v>161</v>
       </c>
       <c r="Q8">
-        <v>442</v>
+        <v>49</v>
       </c>
       <c r="R8">
-        <v>346</v>
+        <v>39</v>
       </c>
       <c r="S8">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="U8">
-        <v>784</v>
+        <v>62</v>
       </c>
       <c r="V8">
-        <v>2199</v>
+        <v>250</v>
       </c>
       <c r="W8">
-        <v>0.468</v>
-      </c>
-      <c r="X8">
-        <v>0.125</v>
+        <v>0.448</v>
       </c>
       <c r="Y8">
-        <v>0.59</v>
+        <v>0.579</v>
       </c>
       <c r="Z8">
-        <v>23.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA8">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="AB8">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="AC8">
         <v>1.4</v>
@@ -1574,76 +1568,76 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="H9">
-        <v>16843</v>
+        <v>1945</v>
       </c>
       <c r="I9">
-        <v>2540</v>
+        <v>284</v>
       </c>
       <c r="J9">
-        <v>5822</v>
+        <v>612</v>
       </c>
       <c r="K9">
-        <v>605</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>1697</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>1073</v>
+        <v>137</v>
       </c>
       <c r="N9">
-        <v>1300</v>
+        <v>157</v>
       </c>
       <c r="O9">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="P9">
-        <v>1569</v>
+        <v>182</v>
       </c>
       <c r="Q9">
-        <v>2227</v>
+        <v>344</v>
       </c>
       <c r="R9">
-        <v>800</v>
+        <v>83</v>
       </c>
       <c r="S9">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="T9">
-        <v>905</v>
+        <v>137</v>
       </c>
       <c r="U9">
-        <v>1264</v>
+        <v>161</v>
       </c>
       <c r="V9">
-        <v>6758</v>
+        <v>712</v>
       </c>
       <c r="W9">
-        <v>0.436</v>
+        <v>0.464</v>
       </c>
       <c r="X9">
-        <v>0.357</v>
+        <v>0.206</v>
       </c>
       <c r="Y9">
-        <v>0.825</v>
+        <v>0.873</v>
       </c>
       <c r="Z9">
-        <v>27.7</v>
+        <v>23.7</v>
       </c>
       <c r="AA9">
-        <v>11.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB9">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AC9">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AD9" t="s">
         <v>150</v>
@@ -1666,76 +1660,76 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>720</v>
+        <v>74</v>
       </c>
       <c r="H10">
-        <v>8444</v>
+        <v>859</v>
       </c>
       <c r="I10">
-        <v>961</v>
+        <v>94</v>
       </c>
       <c r="J10">
-        <v>2221</v>
+        <v>226</v>
       </c>
       <c r="K10">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>718</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="N10">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="O10">
-        <v>431</v>
+        <v>61</v>
       </c>
       <c r="P10">
-        <v>1266</v>
+        <v>141</v>
       </c>
       <c r="Q10">
-        <v>560</v>
+        <v>51</v>
       </c>
       <c r="R10">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="S10">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="T10">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="U10">
-        <v>732</v>
+        <v>79</v>
       </c>
       <c r="V10">
-        <v>2385</v>
+        <v>232</v>
       </c>
       <c r="W10">
-        <v>0.433</v>
+        <v>0.416</v>
       </c>
       <c r="X10">
-        <v>0.366</v>
+        <v>0.25</v>
       </c>
       <c r="Y10">
-        <v>0.633</v>
+        <v>0.652</v>
       </c>
       <c r="Z10">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="AA10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AB10">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AD10" t="s">
         <v>150</v>
@@ -1758,76 +1752,76 @@
         <v>23</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>63</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
         <v>11</v>
       </c>
-      <c r="G11">
-        <v>615</v>
-      </c>
-      <c r="H11">
-        <v>8884</v>
-      </c>
-      <c r="I11">
-        <v>1215</v>
-      </c>
-      <c r="J11">
-        <v>2907</v>
-      </c>
-      <c r="K11">
-        <v>599</v>
-      </c>
-      <c r="L11">
-        <v>1561</v>
-      </c>
-      <c r="M11">
-        <v>241</v>
-      </c>
       <c r="N11">
-        <v>314</v>
+        <v>17</v>
       </c>
       <c r="O11">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>1223</v>
+        <v>14</v>
       </c>
       <c r="Q11">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>319</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>775</v>
+        <v>10</v>
       </c>
       <c r="V11">
-        <v>3270</v>
+        <v>39</v>
       </c>
       <c r="W11">
-        <v>0.418</v>
+        <v>0.452</v>
       </c>
       <c r="X11">
-        <v>0.384</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.768</v>
+        <v>0.647</v>
       </c>
       <c r="Z11">
-        <v>14.4</v>
+        <v>3.5</v>
       </c>
       <c r="AA11">
-        <v>5.3</v>
+        <v>2.2</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AC11">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" t="s">
         <v>150</v>
@@ -1850,76 +1844,76 @@
         <v>22</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="H12">
-        <v>6666</v>
+        <v>1928</v>
       </c>
       <c r="I12">
-        <v>1090</v>
+        <v>341</v>
       </c>
       <c r="J12">
-        <v>2569</v>
+        <v>773</v>
       </c>
       <c r="K12">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>406</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>923</v>
+        <v>229</v>
       </c>
       <c r="N12">
-        <v>1174</v>
+        <v>293</v>
       </c>
       <c r="O12">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c r="P12">
-        <v>932</v>
+        <v>262</v>
       </c>
       <c r="Q12">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="R12">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="S12">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="T12">
-        <v>517</v>
+        <v>144</v>
       </c>
       <c r="U12">
-        <v>846</v>
+        <v>275</v>
       </c>
       <c r="V12">
-        <v>3243</v>
+        <v>915</v>
       </c>
       <c r="W12">
-        <v>0.424</v>
+        <v>0.441</v>
       </c>
       <c r="X12">
-        <v>0.345</v>
+        <v>0.133</v>
       </c>
       <c r="Y12">
-        <v>0.786</v>
+        <v>0.782</v>
       </c>
       <c r="Z12">
-        <v>21.1</v>
+        <v>25.4</v>
       </c>
       <c r="AA12">
-        <v>10.3</v>
+        <v>12</v>
       </c>
       <c r="AB12">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AC12">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD12" t="s">
         <v>150</v>
@@ -2034,76 +2028,73 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1044</v>
+        <v>52</v>
       </c>
       <c r="H14">
-        <v>25776</v>
+        <v>380</v>
       </c>
       <c r="I14">
-        <v>4062</v>
+        <v>56</v>
       </c>
       <c r="J14">
-        <v>8835</v>
+        <v>123</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>2679</v>
+        <v>32</v>
       </c>
       <c r="N14">
-        <v>3832</v>
+        <v>49</v>
       </c>
       <c r="O14">
-        <v>1880</v>
+        <v>40</v>
       </c>
       <c r="P14">
-        <v>6116</v>
+        <v>96</v>
       </c>
       <c r="Q14">
-        <v>1199</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>702</v>
+        <v>11</v>
       </c>
       <c r="S14">
-        <v>1602</v>
+        <v>38</v>
       </c>
       <c r="T14">
-        <v>1367</v>
+        <v>16</v>
       </c>
       <c r="U14">
-        <v>3006</v>
+        <v>71</v>
       </c>
       <c r="V14">
-        <v>10805</v>
+        <v>144</v>
       </c>
       <c r="W14">
-        <v>0.46</v>
-      </c>
-      <c r="X14">
-        <v>0.054</v>
+        <v>0.455</v>
       </c>
       <c r="Y14">
-        <v>0.699</v>
+        <v>0.653</v>
       </c>
       <c r="Z14">
-        <v>24.7</v>
+        <v>7.3</v>
       </c>
       <c r="AA14">
-        <v>10.3</v>
+        <v>2.8</v>
       </c>
       <c r="AB14">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC14">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AD14" t="s">
         <v>150</v>
@@ -2126,76 +2117,73 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>541</v>
+        <v>76</v>
       </c>
       <c r="H15">
-        <v>9409</v>
+        <v>1719</v>
       </c>
       <c r="I15">
-        <v>1029</v>
+        <v>210</v>
       </c>
       <c r="J15">
-        <v>2029</v>
+        <v>413</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>588</v>
+        <v>105</v>
       </c>
       <c r="N15">
-        <v>952</v>
+        <v>165</v>
       </c>
       <c r="O15">
-        <v>794</v>
+        <v>141</v>
       </c>
       <c r="P15">
-        <v>2273</v>
+        <v>391</v>
       </c>
       <c r="Q15">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="R15">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="S15">
-        <v>767</v>
+        <v>148</v>
       </c>
       <c r="T15">
-        <v>500</v>
+        <v>96</v>
       </c>
       <c r="U15">
-        <v>1471</v>
+        <v>225</v>
       </c>
       <c r="V15">
-        <v>2648</v>
+        <v>525</v>
       </c>
       <c r="W15">
-        <v>0.507</v>
-      </c>
-      <c r="X15">
-        <v>0.286</v>
+        <v>0.508</v>
       </c>
       <c r="Y15">
-        <v>0.618</v>
+        <v>0.636</v>
       </c>
       <c r="Z15">
-        <v>17.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA15">
-        <v>4.9</v>
+        <v>6.9</v>
       </c>
       <c r="AB15">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="AC15">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD15" t="s">
         <v>150</v>
@@ -2218,76 +2206,76 @@
         <v>21</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>609</v>
+        <v>63</v>
       </c>
       <c r="H16">
-        <v>14712</v>
+        <v>730</v>
       </c>
       <c r="I16">
-        <v>3414</v>
+        <v>204</v>
       </c>
       <c r="J16">
-        <v>6824</v>
+        <v>419</v>
       </c>
       <c r="K16">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>760</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>1630</v>
+        <v>110</v>
       </c>
       <c r="N16">
-        <v>2165</v>
+        <v>166</v>
       </c>
       <c r="O16">
-        <v>1252</v>
+        <v>77</v>
       </c>
       <c r="P16">
-        <v>3258</v>
+        <v>150</v>
       </c>
       <c r="Q16">
-        <v>723</v>
+        <v>35</v>
       </c>
       <c r="R16">
-        <v>450</v>
+        <v>22</v>
       </c>
       <c r="S16">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>991</v>
+        <v>69</v>
       </c>
       <c r="U16">
-        <v>1074</v>
+        <v>70</v>
       </c>
       <c r="V16">
-        <v>8693</v>
+        <v>519</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
+        <v>0.487</v>
       </c>
       <c r="X16">
-        <v>0.309</v>
+        <v>0.167</v>
       </c>
       <c r="Y16">
-        <v>0.753</v>
+        <v>0.663</v>
       </c>
       <c r="Z16">
-        <v>24.2</v>
+        <v>11.6</v>
       </c>
       <c r="AA16">
-        <v>14.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB16">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="AC16">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD16" t="s">
         <v>150</v>
@@ -2402,76 +2390,76 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>781</v>
+        <v>74</v>
       </c>
       <c r="H18">
-        <v>25903</v>
+        <v>2602</v>
       </c>
       <c r="I18">
-        <v>4616</v>
+        <v>514</v>
       </c>
       <c r="J18">
-        <v>10335</v>
+        <v>1100</v>
       </c>
       <c r="K18">
-        <v>326</v>
+        <v>13</v>
       </c>
       <c r="L18">
-        <v>1105</v>
+        <v>38</v>
       </c>
       <c r="M18">
-        <v>3326</v>
+        <v>323</v>
       </c>
       <c r="N18">
-        <v>4326</v>
+        <v>442</v>
       </c>
       <c r="O18">
-        <v>2079</v>
+        <v>269</v>
       </c>
       <c r="P18">
-        <v>7232</v>
+        <v>759</v>
       </c>
       <c r="Q18">
-        <v>1985</v>
+        <v>163</v>
       </c>
       <c r="R18">
-        <v>606</v>
+        <v>71</v>
       </c>
       <c r="S18">
-        <v>1051</v>
+        <v>99</v>
       </c>
       <c r="T18">
-        <v>2036</v>
+        <v>217</v>
       </c>
       <c r="U18">
-        <v>2062</v>
+        <v>217</v>
       </c>
       <c r="V18">
-        <v>12884</v>
+        <v>1364</v>
       </c>
       <c r="W18">
-        <v>0.447</v>
+        <v>0.467</v>
       </c>
       <c r="X18">
-        <v>0.295</v>
+        <v>0.342</v>
       </c>
       <c r="Y18">
-        <v>0.769</v>
+        <v>0.731</v>
       </c>
       <c r="Z18">
-        <v>33.2</v>
+        <v>35.2</v>
       </c>
       <c r="AA18">
-        <v>16.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB18">
-        <v>9.300000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="AC18">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD18" t="s">
         <v>150</v>
@@ -2494,76 +2482,76 @@
         <v>22</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>852</v>
+        <v>82</v>
       </c>
       <c r="H19">
-        <v>20319</v>
+        <v>1355</v>
       </c>
       <c r="I19">
-        <v>2549</v>
+        <v>162</v>
       </c>
       <c r="J19">
-        <v>5991</v>
+        <v>393</v>
       </c>
       <c r="K19">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>943</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>1278</v>
+        <v>71</v>
       </c>
       <c r="N19">
-        <v>1576</v>
+        <v>95</v>
       </c>
       <c r="O19">
-        <v>469</v>
+        <v>56</v>
       </c>
       <c r="P19">
-        <v>1820</v>
+        <v>153</v>
       </c>
       <c r="Q19">
-        <v>3313</v>
+        <v>232</v>
       </c>
       <c r="R19">
-        <v>735</v>
+        <v>65</v>
       </c>
       <c r="S19">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="T19">
-        <v>1267</v>
+        <v>98</v>
       </c>
       <c r="U19">
-        <v>1824</v>
+        <v>149</v>
       </c>
       <c r="V19">
-        <v>6628</v>
+        <v>401</v>
       </c>
       <c r="W19">
-        <v>0.425</v>
+        <v>0.412</v>
       </c>
       <c r="X19">
-        <v>0.267</v>
+        <v>0.176</v>
       </c>
       <c r="Y19">
-        <v>0.8110000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="Z19">
-        <v>23.8</v>
+        <v>16.5</v>
       </c>
       <c r="AA19">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
       <c r="AB19">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AC19">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD19" t="s">
         <v>150</v>
@@ -2586,76 +2574,76 @@
         <v>23</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="H20">
-        <v>1499</v>
+        <v>1121</v>
       </c>
       <c r="I20">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="J20">
-        <v>378</v>
+        <v>283</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="N20">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="O20">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="P20">
-        <v>428</v>
+        <v>326</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="R20">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="S20">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="T20">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="U20">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="V20">
-        <v>418</v>
+        <v>307</v>
       </c>
       <c r="W20">
-        <v>0.439</v>
+        <v>0.417</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.524</v>
+        <v>0.55</v>
       </c>
       <c r="Z20">
-        <v>12.9</v>
+        <v>19.3</v>
       </c>
       <c r="AA20">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="AB20">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="AC20">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="s">
         <v>150</v>
@@ -2678,40 +2666,40 @@
         <v>23</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
         <v>7</v>
       </c>
-      <c r="J21">
-        <v>15</v>
-      </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>2</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2720,34 +2708,31 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="W21">
-        <v>0.467</v>
+        <v>0.571</v>
       </c>
       <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>4.3</v>
+      </c>
+      <c r="AA21">
+        <v>2.3</v>
+      </c>
+      <c r="AB21">
         <v>0.5</v>
       </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>5</v>
-      </c>
-      <c r="AA21">
-        <v>2.8</v>
-      </c>
-      <c r="AB21">
-        <v>0.8</v>
-      </c>
       <c r="AC21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="s">
         <v>150</v>
@@ -2770,76 +2755,76 @@
         <v>27</v>
       </c>
       <c r="F22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>732</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>18654</v>
+        <v>644</v>
       </c>
       <c r="I22">
-        <v>2123</v>
+        <v>79</v>
       </c>
       <c r="J22">
-        <v>4492</v>
+        <v>159</v>
       </c>
       <c r="K22">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>1572</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>1445</v>
+        <v>75</v>
       </c>
       <c r="N22">
-        <v>1692</v>
+        <v>89</v>
       </c>
       <c r="O22">
-        <v>520</v>
+        <v>46</v>
       </c>
       <c r="P22">
-        <v>2017</v>
+        <v>110</v>
       </c>
       <c r="Q22">
-        <v>1875</v>
+        <v>45</v>
       </c>
       <c r="R22">
-        <v>671</v>
+        <v>19</v>
       </c>
       <c r="S22">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="T22">
-        <v>960</v>
+        <v>30</v>
       </c>
       <c r="U22">
-        <v>1438</v>
+        <v>85</v>
       </c>
       <c r="V22">
-        <v>6265</v>
+        <v>237</v>
       </c>
       <c r="W22">
-        <v>0.473</v>
+        <v>0.497</v>
       </c>
       <c r="X22">
-        <v>0.365</v>
+        <v>0.4</v>
       </c>
       <c r="Y22">
-        <v>0.854</v>
+        <v>0.843</v>
       </c>
       <c r="Z22">
-        <v>25.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA22">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AB22">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AC22">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD22" t="s">
         <v>150</v>
@@ -2862,76 +2847,76 @@
         <v>23</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="H23">
-        <v>3108</v>
+        <v>1443</v>
       </c>
       <c r="I23">
-        <v>617</v>
+        <v>251</v>
       </c>
       <c r="J23">
-        <v>1418</v>
+        <v>572</v>
       </c>
       <c r="K23">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="N23">
-        <v>333</v>
+        <v>157</v>
       </c>
       <c r="O23">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="P23">
-        <v>315</v>
+        <v>147</v>
       </c>
       <c r="Q23">
-        <v>320</v>
+        <v>177</v>
       </c>
       <c r="R23">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="S23">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="T23">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="U23">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="V23">
-        <v>1502</v>
+        <v>616</v>
       </c>
       <c r="W23">
-        <v>0.435</v>
+        <v>0.439</v>
       </c>
       <c r="X23">
-        <v>0.138</v>
+        <v>0.097</v>
       </c>
       <c r="Y23">
-        <v>0.778</v>
+        <v>0.707</v>
       </c>
       <c r="Z23">
         <v>20.6</v>
       </c>
       <c r="AA23">
-        <v>9.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB23">
         <v>2.1</v>
       </c>
       <c r="AC23">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD23" t="s">
         <v>150</v>
@@ -2954,76 +2939,76 @@
         <v>24</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>917</v>
+        <v>81</v>
       </c>
       <c r="H24">
-        <v>18133</v>
+        <v>1661</v>
       </c>
       <c r="I24">
-        <v>2505</v>
+        <v>275</v>
       </c>
       <c r="J24">
-        <v>5615</v>
+        <v>643</v>
       </c>
       <c r="K24">
-        <v>677</v>
+        <v>23</v>
       </c>
       <c r="L24">
-        <v>1724</v>
+        <v>77</v>
       </c>
       <c r="M24">
-        <v>752</v>
+        <v>124</v>
       </c>
       <c r="N24">
-        <v>895</v>
+        <v>152</v>
       </c>
       <c r="O24">
-        <v>647</v>
+        <v>99</v>
       </c>
       <c r="P24">
-        <v>2550</v>
+        <v>286</v>
       </c>
       <c r="Q24">
-        <v>1185</v>
+        <v>142</v>
       </c>
       <c r="R24">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="S24">
-        <v>292</v>
+        <v>25</v>
       </c>
       <c r="T24">
-        <v>811</v>
+        <v>120</v>
       </c>
       <c r="U24">
-        <v>1964</v>
+        <v>230</v>
       </c>
       <c r="V24">
-        <v>6439</v>
+        <v>697</v>
       </c>
       <c r="W24">
-        <v>0.446</v>
+        <v>0.428</v>
       </c>
       <c r="X24">
-        <v>0.393</v>
+        <v>0.299</v>
       </c>
       <c r="Y24">
-        <v>0.84</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="Z24">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA24">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="AB24">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC24">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD24" t="s">
         <v>150</v>
@@ -3046,76 +3031,76 @@
         <v>22</v>
       </c>
       <c r="F25">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>656</v>
+        <v>54</v>
       </c>
       <c r="H25">
-        <v>7974</v>
+        <v>606</v>
       </c>
       <c r="I25">
-        <v>1047</v>
+        <v>97</v>
       </c>
       <c r="J25">
-        <v>2382</v>
+        <v>211</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="M25">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="N25">
-        <v>567</v>
+        <v>61</v>
       </c>
       <c r="O25">
-        <v>509</v>
+        <v>52</v>
       </c>
       <c r="P25">
-        <v>1691</v>
+        <v>151</v>
       </c>
       <c r="Q25">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="R25">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="S25">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="T25">
-        <v>465</v>
+        <v>45</v>
       </c>
       <c r="U25">
-        <v>1221</v>
+        <v>112</v>
       </c>
       <c r="V25">
-        <v>2538</v>
+        <v>236</v>
       </c>
       <c r="W25">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="X25">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.748</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="Z25">
-        <v>12.2</v>
+        <v>11.2</v>
       </c>
       <c r="AA25">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AB25">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AC25">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD25" t="s">
         <v>150</v>
@@ -3138,76 +3123,76 @@
         <v>22</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="H26">
-        <v>2019</v>
+        <v>594</v>
       </c>
       <c r="I26">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="J26">
-        <v>717</v>
+        <v>193</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="N26">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="O26">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="P26">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="Q26">
-        <v>325</v>
+        <v>104</v>
       </c>
       <c r="R26">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="S26">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="U26">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="V26">
-        <v>736</v>
+        <v>192</v>
       </c>
       <c r="W26">
-        <v>0.414</v>
+        <v>0.415</v>
       </c>
       <c r="X26">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="Z26">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="AA26">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD26" t="s">
         <v>150</v>
@@ -3230,76 +3215,76 @@
         <v>22</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>966</v>
+        <v>82</v>
       </c>
       <c r="H27">
-        <v>29481</v>
+        <v>1944</v>
       </c>
       <c r="I27">
-        <v>5068</v>
+        <v>376</v>
       </c>
       <c r="J27">
-        <v>11672</v>
+        <v>836</v>
       </c>
       <c r="K27">
-        <v>315</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1051</v>
+        <v>14</v>
       </c>
       <c r="M27">
-        <v>2463</v>
+        <v>152</v>
       </c>
       <c r="N27">
-        <v>3267</v>
+        <v>182</v>
       </c>
       <c r="O27">
-        <v>1274</v>
+        <v>105</v>
       </c>
       <c r="P27">
-        <v>4002</v>
+        <v>263</v>
       </c>
       <c r="Q27">
-        <v>2945</v>
+        <v>303</v>
       </c>
       <c r="R27">
-        <v>1519</v>
+        <v>104</v>
       </c>
       <c r="S27">
-        <v>432</v>
+        <v>39</v>
       </c>
       <c r="T27">
-        <v>1734</v>
+        <v>163</v>
       </c>
       <c r="U27">
-        <v>2515</v>
+        <v>186</v>
       </c>
       <c r="V27">
-        <v>12914</v>
+        <v>906</v>
       </c>
       <c r="W27">
-        <v>0.434</v>
+        <v>0.45</v>
       </c>
       <c r="X27">
-        <v>0.3</v>
+        <v>0.143</v>
       </c>
       <c r="Y27">
-        <v>0.754</v>
+        <v>0.835</v>
       </c>
       <c r="Z27">
-        <v>30.5</v>
+        <v>23.7</v>
       </c>
       <c r="AA27">
-        <v>13.4</v>
+        <v>11</v>
       </c>
       <c r="AB27">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC27">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="AD27" t="s">
         <v>150</v>
@@ -3322,76 +3307,76 @@
         <v>23</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="H28">
-        <v>3347</v>
+        <v>606</v>
       </c>
       <c r="I28">
-        <v>686</v>
+        <v>149</v>
       </c>
       <c r="J28">
-        <v>1583</v>
+        <v>340</v>
       </c>
       <c r="K28">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="N28">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="O28">
-        <v>228</v>
+        <v>54</v>
       </c>
       <c r="P28">
-        <v>512</v>
+        <v>102</v>
       </c>
       <c r="Q28">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="R28">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="S28">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="T28">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="U28">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="V28">
-        <v>1553</v>
+        <v>352</v>
       </c>
       <c r="W28">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="X28">
-        <v>0.236</v>
+        <v>0.118</v>
       </c>
       <c r="Y28">
-        <v>0.643</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Z28">
-        <v>16.7</v>
+        <v>11.9</v>
       </c>
       <c r="AA28">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB28">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AC28">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD28" t="s">
         <v>150</v>
@@ -3414,13 +3399,13 @@
         <v>23</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -3477,7 +3462,7 @@
         <v>2</v>
       </c>
       <c r="AA29">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AB29">
         <v>0.2</v>
@@ -3598,76 +3583,76 @@
         <v>23</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>41</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>16</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="G31">
-        <v>14</v>
-      </c>
-      <c r="H31">
-        <v>147</v>
-      </c>
-      <c r="I31">
-        <v>16</v>
-      </c>
-      <c r="J31">
-        <v>55</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>12</v>
-      </c>
-      <c r="M31">
-        <v>33</v>
-      </c>
-      <c r="N31">
-        <v>38</v>
-      </c>
-      <c r="O31">
-        <v>3</v>
-      </c>
-      <c r="P31">
-        <v>11</v>
-      </c>
-      <c r="Q31">
-        <v>8</v>
-      </c>
-      <c r="R31">
+      <c r="U31">
         <v>5</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
+      <c r="V31">
         <v>10</v>
       </c>
-      <c r="U31">
-        <v>15</v>
-      </c>
-      <c r="V31">
-        <v>68</v>
-      </c>
       <c r="W31">
-        <v>0.291</v>
+        <v>0.25</v>
       </c>
       <c r="X31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>0.868</v>
+        <v>0.5</v>
       </c>
       <c r="Z31">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="AA31">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="AB31">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AC31">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AD31" t="s">
         <v>150</v>
@@ -3690,76 +3675,76 @@
         <v>22</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="H32">
-        <v>2282</v>
+        <v>690</v>
       </c>
       <c r="I32">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="J32">
-        <v>631</v>
+        <v>189</v>
       </c>
       <c r="K32">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="L32">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="M32">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="N32">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="O32">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="P32">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="Q32">
-        <v>465</v>
+        <v>131</v>
       </c>
       <c r="R32">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="S32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="U32">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="V32">
-        <v>739</v>
+        <v>214</v>
       </c>
       <c r="W32">
-        <v>0.403</v>
+        <v>0.418</v>
       </c>
       <c r="X32">
-        <v>0.432</v>
+        <v>0.333</v>
       </c>
       <c r="Y32">
-        <v>0.869</v>
+        <v>0.905</v>
       </c>
       <c r="Z32">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="AA32">
         <v>3.1</v>
       </c>
       <c r="AB32">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD32" t="s">
         <v>150</v>
@@ -3782,76 +3767,76 @@
         <v>22</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="H33">
-        <v>3334</v>
+        <v>464</v>
       </c>
       <c r="I33">
-        <v>559</v>
+        <v>97</v>
       </c>
       <c r="J33">
-        <v>1305</v>
+        <v>212</v>
       </c>
       <c r="K33">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="L33">
-        <v>290</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="N33">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="O33">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="P33">
-        <v>402</v>
+        <v>63</v>
       </c>
       <c r="Q33">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="R33">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="S33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>239</v>
+        <v>49</v>
       </c>
       <c r="U33">
-        <v>351</v>
+        <v>53</v>
       </c>
       <c r="V33">
-        <v>1375</v>
+        <v>225</v>
       </c>
       <c r="W33">
-        <v>0.428</v>
+        <v>0.458</v>
       </c>
       <c r="X33">
-        <v>0.321</v>
+        <v>0.158</v>
       </c>
       <c r="Y33">
-        <v>0.85</v>
+        <v>0.848</v>
       </c>
       <c r="Z33">
-        <v>15.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA33">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="AB33">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD33" t="s">
         <v>150</v>
@@ -3874,76 +3859,73 @@
         <v>22</v>
       </c>
       <c r="F34">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>801</v>
+        <v>74</v>
       </c>
       <c r="H34">
-        <v>22388</v>
+        <v>1192</v>
       </c>
       <c r="I34">
-        <v>2834</v>
+        <v>147</v>
       </c>
       <c r="J34">
-        <v>5643</v>
+        <v>299</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>1864</v>
+        <v>96</v>
       </c>
       <c r="N34">
-        <v>2901</v>
+        <v>152</v>
       </c>
       <c r="O34">
-        <v>2396</v>
+        <v>157</v>
       </c>
       <c r="P34">
-        <v>6854</v>
+        <v>383</v>
       </c>
       <c r="Q34">
-        <v>647</v>
+        <v>19</v>
       </c>
       <c r="R34">
-        <v>614</v>
+        <v>33</v>
       </c>
       <c r="S34">
-        <v>379</v>
+        <v>30</v>
       </c>
       <c r="T34">
-        <v>1244</v>
+        <v>72</v>
       </c>
       <c r="U34">
-        <v>2893</v>
+        <v>264</v>
       </c>
       <c r="V34">
-        <v>7532</v>
+        <v>390</v>
       </c>
       <c r="W34">
-        <v>0.502</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
+        <v>0.492</v>
       </c>
       <c r="Y34">
-        <v>0.643</v>
+        <v>0.632</v>
       </c>
       <c r="Z34">
-        <v>28</v>
+        <v>16.1</v>
       </c>
       <c r="AA34">
-        <v>9.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB34">
-        <v>8.6</v>
+        <v>5.2</v>
       </c>
       <c r="AC34">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD34" t="s">
         <v>150</v>
@@ -3966,73 +3948,73 @@
         <v>23</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H35">
-        <v>594</v>
+        <v>202</v>
       </c>
       <c r="I35">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="J35">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="K35">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N35">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O35">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P35">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="Q35">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="R35">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="U35">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="V35">
-        <v>306</v>
+        <v>113</v>
       </c>
       <c r="W35">
-        <v>0.392</v>
+        <v>0.381</v>
       </c>
       <c r="X35">
-        <v>0.277</v>
+        <v>0.263</v>
       </c>
       <c r="Y35">
-        <v>0.86</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="Z35">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA35">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB35">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC35">
         <v>0.7</v>
@@ -4058,76 +4040,76 @@
         <v>25</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="H36">
-        <v>2703</v>
+        <v>505</v>
       </c>
       <c r="I36">
-        <v>472</v>
+        <v>112</v>
       </c>
       <c r="J36">
-        <v>1139</v>
+        <v>254</v>
       </c>
       <c r="K36">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="L36">
-        <v>402</v>
+        <v>60</v>
       </c>
       <c r="M36">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="N36">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="O36">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="P36">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="Q36">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="R36">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="S36">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="T36">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="U36">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="V36">
-        <v>1292</v>
+        <v>300</v>
       </c>
       <c r="W36">
-        <v>0.414</v>
+        <v>0.441</v>
       </c>
       <c r="X36">
-        <v>0.378</v>
+        <v>0.4</v>
       </c>
       <c r="Y36">
-        <v>0.8100000000000001</v>
+        <v>0.722</v>
       </c>
       <c r="Z36">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="AA36">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="AB36">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AC36">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD36" t="s">
         <v>150</v>
@@ -4150,73 +4132,73 @@
         <v>23</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H37">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J37">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N37">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O37">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="P37">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="V37">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="W37">
-        <v>0.333</v>
+        <v>0.306</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.65</v>
+        <v>0.667</v>
       </c>
       <c r="Z37">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AB37">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4242,73 +4224,73 @@
         <v>24</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>78</v>
+      </c>
+      <c r="H38">
+        <v>1259</v>
+      </c>
+      <c r="I38">
+        <v>199</v>
+      </c>
+      <c r="J38">
+        <v>468</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>4</v>
       </c>
-      <c r="G38">
-        <v>210</v>
-      </c>
-      <c r="H38">
-        <v>2937</v>
-      </c>
-      <c r="I38">
-        <v>425</v>
-      </c>
-      <c r="J38">
-        <v>998</v>
-      </c>
-      <c r="K38">
-        <v>10</v>
-      </c>
-      <c r="L38">
-        <v>24</v>
-      </c>
       <c r="M38">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="N38">
-        <v>301</v>
+        <v>131</v>
       </c>
       <c r="O38">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="P38">
-        <v>751</v>
+        <v>336</v>
       </c>
       <c r="Q38">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="R38">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="S38">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="T38">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="U38">
-        <v>451</v>
+        <v>189</v>
       </c>
       <c r="V38">
-        <v>1084</v>
+        <v>486</v>
       </c>
       <c r="W38">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="X38">
-        <v>0.417</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.744</v>
+        <v>0.672</v>
       </c>
       <c r="Z38">
-        <v>14</v>
+        <v>16.1</v>
       </c>
       <c r="AA38">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="AB38">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="AC38">
         <v>0.4</v>
@@ -4334,76 +4316,76 @@
         <v>24</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="H39">
-        <v>1336</v>
+        <v>1004</v>
       </c>
       <c r="I39">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="J39">
-        <v>562</v>
+        <v>418</v>
       </c>
       <c r="K39">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L39">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="M39">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="N39">
+        <v>119</v>
+      </c>
+      <c r="O39">
+        <v>42</v>
+      </c>
+      <c r="P39">
+        <v>119</v>
+      </c>
+      <c r="Q39">
+        <v>76</v>
+      </c>
+      <c r="R39">
+        <v>30</v>
+      </c>
+      <c r="S39">
+        <v>8</v>
+      </c>
+      <c r="T39">
+        <v>77</v>
+      </c>
+      <c r="U39">
         <v>158</v>
       </c>
-      <c r="O39">
-        <v>58</v>
-      </c>
-      <c r="P39">
-        <v>162</v>
-      </c>
-      <c r="Q39">
-        <v>98</v>
-      </c>
-      <c r="R39">
-        <v>41</v>
-      </c>
-      <c r="S39">
-        <v>14</v>
-      </c>
-      <c r="T39">
-        <v>98</v>
-      </c>
-      <c r="U39">
-        <v>205</v>
-      </c>
       <c r="V39">
-        <v>574</v>
+        <v>429</v>
       </c>
       <c r="W39">
-        <v>0.386</v>
+        <v>0.38</v>
       </c>
       <c r="X39">
-        <v>0.291</v>
+        <v>0.292</v>
       </c>
       <c r="Y39">
-        <v>0.728</v>
+        <v>0.773</v>
       </c>
       <c r="Z39">
-        <v>12.7</v>
+        <v>16.2</v>
       </c>
       <c r="AA39">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB39">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AC39">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD39" t="s">
         <v>150</v>
@@ -4426,76 +4408,76 @@
         <v>23</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>64</v>
+      </c>
+      <c r="H40">
+        <v>792</v>
+      </c>
+      <c r="I40">
+        <v>131</v>
+      </c>
+      <c r="J40">
+        <v>308</v>
+      </c>
+      <c r="K40">
         <v>6</v>
       </c>
-      <c r="G40">
-        <v>276</v>
-      </c>
-      <c r="H40">
-        <v>4513</v>
-      </c>
-      <c r="I40">
-        <v>671</v>
-      </c>
-      <c r="J40">
-        <v>1539</v>
-      </c>
-      <c r="K40">
+      <c r="L40">
         <v>25</v>
       </c>
-      <c r="L40">
-        <v>95</v>
-      </c>
       <c r="M40">
-        <v>332</v>
+        <v>71</v>
       </c>
       <c r="N40">
-        <v>455</v>
+        <v>118</v>
       </c>
       <c r="O40">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="P40">
-        <v>351</v>
+        <v>71</v>
       </c>
       <c r="Q40">
-        <v>780</v>
+        <v>191</v>
       </c>
       <c r="R40">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="S40">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="T40">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="U40">
-        <v>403</v>
+        <v>83</v>
       </c>
       <c r="V40">
-        <v>1699</v>
+        <v>339</v>
       </c>
       <c r="W40">
-        <v>0.436</v>
+        <v>0.425</v>
       </c>
       <c r="X40">
-        <v>0.263</v>
+        <v>0.24</v>
       </c>
       <c r="Y40">
-        <v>0.73</v>
+        <v>0.602</v>
       </c>
       <c r="Z40">
-        <v>16.4</v>
+        <v>12.4</v>
       </c>
       <c r="AA40">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB40">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="AC40">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD40" t="s">
         <v>150</v>
@@ -4610,76 +4592,76 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="H42">
-        <v>4568</v>
+        <v>1171</v>
       </c>
       <c r="I42">
-        <v>783</v>
+        <v>216</v>
       </c>
       <c r="J42">
-        <v>1877</v>
+        <v>513</v>
       </c>
       <c r="K42">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="L42">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="M42">
-        <v>310</v>
+        <v>58</v>
       </c>
       <c r="N42">
-        <v>467</v>
+        <v>92</v>
       </c>
       <c r="O42">
-        <v>418</v>
+        <v>117</v>
       </c>
       <c r="P42">
-        <v>925</v>
+        <v>221</v>
       </c>
       <c r="Q42">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="R42">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="S42">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="T42">
-        <v>264</v>
+        <v>71</v>
       </c>
       <c r="U42">
-        <v>495</v>
+        <v>153</v>
       </c>
       <c r="V42">
-        <v>1942</v>
+        <v>507</v>
       </c>
       <c r="W42">
-        <v>0.417</v>
+        <v>0.421</v>
       </c>
       <c r="X42">
-        <v>0.34</v>
+        <v>0.298</v>
       </c>
       <c r="Y42">
-        <v>0.664</v>
+        <v>0.63</v>
       </c>
       <c r="Z42">
-        <v>17.1</v>
+        <v>15.4</v>
       </c>
       <c r="AA42">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB42">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC42">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AD42" t="s">
         <v>150</v>
@@ -4791,76 +4773,73 @@
         <v>23</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>35</v>
+      </c>
+      <c r="H44">
+        <v>161</v>
+      </c>
+      <c r="I44">
+        <v>27</v>
+      </c>
+      <c r="J44">
+        <v>60</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>28</v>
+      </c>
+      <c r="N44">
+        <v>45</v>
+      </c>
+      <c r="O44">
+        <v>23</v>
+      </c>
+      <c r="P44">
+        <v>58</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>9</v>
+      </c>
+      <c r="T44">
         <v>13</v>
       </c>
-      <c r="G44">
-        <v>683</v>
-      </c>
-      <c r="H44">
-        <v>12291</v>
-      </c>
-      <c r="I44">
-        <v>1638</v>
-      </c>
-      <c r="J44">
-        <v>3484</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>11</v>
-      </c>
-      <c r="M44">
-        <v>961</v>
-      </c>
-      <c r="N44">
-        <v>1363</v>
-      </c>
-      <c r="O44">
-        <v>1054</v>
-      </c>
-      <c r="P44">
-        <v>2964</v>
-      </c>
-      <c r="Q44">
-        <v>266</v>
-      </c>
-      <c r="R44">
-        <v>261</v>
-      </c>
-      <c r="S44">
-        <v>322</v>
-      </c>
-      <c r="T44">
-        <v>685</v>
-      </c>
       <c r="U44">
-        <v>1607</v>
+        <v>26</v>
       </c>
       <c r="V44">
-        <v>4238</v>
+        <v>82</v>
       </c>
       <c r="W44">
-        <v>0.47</v>
-      </c>
-      <c r="X44">
-        <v>0.091</v>
+        <v>0.45</v>
       </c>
       <c r="Y44">
-        <v>0.705</v>
+        <v>0.622</v>
       </c>
       <c r="Z44">
-        <v>18</v>
+        <v>4.6</v>
       </c>
       <c r="AA44">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="AB44">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="AC44">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD44" t="s">
         <v>150</v>
@@ -4883,76 +4862,76 @@
         <v>22</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="H45">
-        <v>2964</v>
+        <v>2145</v>
       </c>
       <c r="I45">
-        <v>429</v>
+        <v>294</v>
       </c>
       <c r="J45">
-        <v>1047</v>
+        <v>724</v>
       </c>
       <c r="K45">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="L45">
-        <v>287</v>
+        <v>197</v>
       </c>
       <c r="M45">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="N45">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="O45">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="P45">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="Q45">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="R45">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="S45">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T45">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="U45">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="V45">
-        <v>1273</v>
+        <v>915</v>
       </c>
       <c r="W45">
-        <v>0.41</v>
+        <v>0.406</v>
       </c>
       <c r="X45">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="Y45">
-        <v>0.749</v>
+        <v>0.77</v>
       </c>
       <c r="Z45">
-        <v>25.8</v>
+        <v>33.5</v>
       </c>
       <c r="AA45">
-        <v>11.1</v>
+        <v>14.3</v>
       </c>
       <c r="AB45">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="AC45">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="AD45" t="s">
         <v>150</v>
@@ -4975,76 +4954,76 @@
         <v>23</v>
       </c>
       <c r="F46">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>678</v>
+        <v>55</v>
       </c>
       <c r="H46">
-        <v>16422</v>
+        <v>819</v>
       </c>
       <c r="I46">
-        <v>2847</v>
+        <v>134</v>
       </c>
       <c r="J46">
-        <v>6227</v>
+        <v>288</v>
       </c>
       <c r="K46">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1387</v>
+        <v>4</v>
       </c>
       <c r="M46">
-        <v>948</v>
+        <v>47</v>
       </c>
       <c r="N46">
-        <v>1214</v>
+        <v>66</v>
       </c>
       <c r="O46">
-        <v>1029</v>
+        <v>82</v>
       </c>
       <c r="P46">
-        <v>3680</v>
+        <v>229</v>
       </c>
       <c r="Q46">
-        <v>891</v>
+        <v>33</v>
       </c>
       <c r="R46">
-        <v>397</v>
+        <v>35</v>
       </c>
       <c r="S46">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="T46">
-        <v>851</v>
+        <v>43</v>
       </c>
       <c r="U46">
-        <v>1896</v>
+        <v>100</v>
       </c>
       <c r="V46">
-        <v>7175</v>
+        <v>315</v>
       </c>
       <c r="W46">
-        <v>0.457</v>
+        <v>0.465</v>
       </c>
       <c r="X46">
-        <v>0.384</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.781</v>
+        <v>0.712</v>
       </c>
       <c r="Z46">
-        <v>24.2</v>
+        <v>14.9</v>
       </c>
       <c r="AA46">
-        <v>10.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB46">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="AC46">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="AD46" t="s">
         <v>150</v>
@@ -5156,73 +5135,73 @@
         <v>21</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="H48">
-        <v>1902</v>
+        <v>825</v>
       </c>
       <c r="I48">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="J48">
-        <v>635</v>
+        <v>228</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="N48">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="O48">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="P48">
-        <v>452</v>
+        <v>169</v>
       </c>
       <c r="Q48">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="R48">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="S48">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="T48">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="U48">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="V48">
-        <v>721</v>
+        <v>268</v>
       </c>
       <c r="W48">
-        <v>0.449</v>
+        <v>0.465</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>0.648</v>
+        <v>0.644</v>
       </c>
       <c r="Z48">
-        <v>10.6</v>
+        <v>13.3</v>
       </c>
       <c r="AA48">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AB48">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC48">
         <v>0.6</v>
@@ -5248,73 +5227,70 @@
         <v>22</v>
       </c>
       <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>21</v>
+      </c>
+      <c r="H49">
+        <v>85</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>16</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <v>11</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>17</v>
+      </c>
+      <c r="Q49">
         <v>4</v>
       </c>
-      <c r="G49">
-        <v>45</v>
-      </c>
-      <c r="H49">
-        <v>297</v>
-      </c>
-      <c r="I49">
-        <v>27</v>
-      </c>
-      <c r="J49">
-        <v>68</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>26</v>
-      </c>
-      <c r="N49">
-        <v>35</v>
-      </c>
-      <c r="O49">
-        <v>22</v>
-      </c>
-      <c r="P49">
-        <v>65</v>
-      </c>
-      <c r="Q49">
-        <v>10</v>
-      </c>
       <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
         <v>4</v>
       </c>
-      <c r="S49">
-        <v>5</v>
-      </c>
-      <c r="T49">
-        <v>12</v>
-      </c>
       <c r="U49">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="V49">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="W49">
-        <v>0.397</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
+        <v>0.438</v>
       </c>
       <c r="Y49">
-        <v>0.743</v>
+        <v>0.636</v>
       </c>
       <c r="Z49">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="AA49">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AB49">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC49">
         <v>0.2</v>
@@ -5340,19 +5316,19 @@
         <v>23</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H50">
-        <v>657</v>
+        <v>261</v>
       </c>
       <c r="I50">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="J50">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5361,55 +5337,55 @@
         <v>2</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N50">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="O50">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="P50">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="Q50">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S50">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="T50">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="U50">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="V50">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="W50">
-        <v>0.493</v>
+        <v>0.436</v>
       </c>
       <c r="X50">
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>0.5679999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="Z50">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA50">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AB50">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AC50">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD50" t="s">
         <v>150</v>
@@ -5432,76 +5408,76 @@
         <v>22</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="H51">
-        <v>1182</v>
+        <v>800</v>
       </c>
       <c r="I51">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="J51">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="K51">
         <v>5</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="N51">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="O51">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="P51">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="Q51">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="R51">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T51">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="U51">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="V51">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="W51">
-        <v>0.388</v>
+        <v>0.408</v>
       </c>
       <c r="X51">
-        <v>0.227</v>
+        <v>0.278</v>
       </c>
       <c r="Y51">
-        <v>0.705</v>
+        <v>0.732</v>
       </c>
       <c r="Z51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA51">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD51" t="s">
         <v>150</v>
@@ -5524,76 +5500,76 @@
         <v>25</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="H52">
-        <v>1625</v>
+        <v>1181</v>
       </c>
       <c r="I52">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="J52">
-        <v>725</v>
+        <v>506</v>
       </c>
       <c r="K52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L52">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M52">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="N52">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O52">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="P52">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="Q52">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="R52">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S52">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T52">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="U52">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="V52">
-        <v>715</v>
+        <v>504</v>
       </c>
       <c r="W52">
-        <v>0.421</v>
+        <v>0.419</v>
       </c>
       <c r="X52">
-        <v>0.242</v>
+        <v>0.25</v>
       </c>
       <c r="Y52">
-        <v>0.746</v>
+        <v>0.796</v>
       </c>
       <c r="Z52">
-        <v>12.6</v>
+        <v>16.9</v>
       </c>
       <c r="AA52">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB52">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AC52">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD52" t="s">
         <v>150</v>
@@ -5616,19 +5592,19 @@
         <v>22</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H53">
-        <v>209</v>
+        <v>85</v>
       </c>
       <c r="I53">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J53">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5637,37 +5613,37 @@
         <v>1</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N53">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O53">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P53">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R53">
+        <v>3</v>
+      </c>
+      <c r="S53">
         <v>4</v>
       </c>
-      <c r="S53">
-        <v>9</v>
-      </c>
       <c r="T53">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U53">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="V53">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="W53">
-        <v>0.412</v>
+        <v>0.333</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -5676,13 +5652,13 @@
         <v>0.667</v>
       </c>
       <c r="Z53">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="AA53">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="AB53">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC53">
         <v>0.2</v>
@@ -5708,76 +5684,76 @@
         <v>22</v>
       </c>
       <c r="F54">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1335</v>
+        <v>82</v>
       </c>
       <c r="H54">
-        <v>47117</v>
+        <v>2244</v>
       </c>
       <c r="I54">
-        <v>8708</v>
+        <v>259</v>
       </c>
       <c r="J54">
-        <v>18698</v>
+        <v>575</v>
       </c>
       <c r="K54">
-        <v>1132</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>3570</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>3265</v>
+        <v>69</v>
       </c>
       <c r="N54">
-        <v>4480</v>
+        <v>97</v>
       </c>
       <c r="O54">
-        <v>1392</v>
+        <v>108</v>
       </c>
       <c r="P54">
-        <v>5269</v>
+        <v>243</v>
       </c>
       <c r="Q54">
-        <v>8966</v>
+        <v>528</v>
       </c>
       <c r="R54">
-        <v>2445</v>
+        <v>165</v>
       </c>
       <c r="S54">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="T54">
-        <v>3030</v>
+        <v>180</v>
       </c>
       <c r="U54">
-        <v>3217</v>
+        <v>249</v>
       </c>
       <c r="V54">
-        <v>21813</v>
+        <v>588</v>
       </c>
       <c r="W54">
-        <v>0.466</v>
+        <v>0.45</v>
       </c>
       <c r="X54">
-        <v>0.317</v>
+        <v>0.077</v>
       </c>
       <c r="Y54">
-        <v>0.729</v>
+        <v>0.711</v>
       </c>
       <c r="Z54">
-        <v>35.3</v>
+        <v>27.4</v>
       </c>
       <c r="AA54">
-        <v>16.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB54">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="AC54">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD54" t="s">
         <v>150</v>
@@ -5800,76 +5776,76 @@
         <v>23</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H55">
-        <v>1125</v>
+        <v>773</v>
       </c>
       <c r="I55">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="J55">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55">
+        <v>31</v>
+      </c>
+      <c r="M55">
+        <v>62</v>
+      </c>
+      <c r="N55">
+        <v>77</v>
+      </c>
+      <c r="O55">
+        <v>16</v>
+      </c>
+      <c r="P55">
+        <v>65</v>
+      </c>
+      <c r="Q55">
+        <v>81</v>
+      </c>
+      <c r="R55">
+        <v>30</v>
+      </c>
+      <c r="S55">
         <v>8</v>
       </c>
-      <c r="L55">
-        <v>43</v>
-      </c>
-      <c r="M55">
-        <v>94</v>
-      </c>
-      <c r="N55">
-        <v>119</v>
-      </c>
-      <c r="O55">
-        <v>17</v>
-      </c>
-      <c r="P55">
-        <v>90</v>
-      </c>
-      <c r="Q55">
-        <v>152</v>
-      </c>
-      <c r="R55">
-        <v>37</v>
-      </c>
-      <c r="S55">
-        <v>13</v>
-      </c>
       <c r="T55">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="U55">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="V55">
-        <v>340</v>
+        <v>243</v>
       </c>
       <c r="W55">
-        <v>0.399</v>
+        <v>0.384</v>
       </c>
       <c r="X55">
-        <v>0.186</v>
+        <v>0.161</v>
       </c>
       <c r="Y55">
-        <v>0.79</v>
+        <v>0.805</v>
       </c>
       <c r="Z55">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA55">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AB55">
         <v>1</v>
       </c>
       <c r="AC55">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AD55" t="s">
         <v>150</v>
@@ -5892,76 +5868,76 @@
         <v>23</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>1202</v>
+        <v>425</v>
       </c>
       <c r="I56">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="J56">
-        <v>398</v>
+        <v>150</v>
       </c>
       <c r="K56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N56">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="O56">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="P56">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="Q56">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="R56">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="S56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="U56">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="V56">
-        <v>400</v>
+        <v>139</v>
       </c>
       <c r="W56">
-        <v>0.384</v>
+        <v>0.413</v>
       </c>
       <c r="X56">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>0.667</v>
+        <v>0.556</v>
       </c>
       <c r="Z56">
-        <v>13.5</v>
+        <v>11.8</v>
       </c>
       <c r="AA56">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="AB56">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AC56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="s">
         <v>150</v>
@@ -5984,76 +5960,76 @@
         <v>24</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>336</v>
+        <v>47</v>
       </c>
       <c r="H57">
-        <v>6098</v>
+        <v>674</v>
       </c>
       <c r="I57">
-        <v>1014</v>
+        <v>108</v>
       </c>
       <c r="J57">
-        <v>2345</v>
+        <v>242</v>
       </c>
       <c r="K57">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="M57">
-        <v>406</v>
+        <v>47</v>
       </c>
       <c r="N57">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="O57">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="P57">
-        <v>606</v>
+        <v>71</v>
       </c>
       <c r="Q57">
-        <v>1179</v>
+        <v>132</v>
       </c>
       <c r="R57">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="S57">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="T57">
-        <v>580</v>
+        <v>76</v>
       </c>
       <c r="U57">
-        <v>599</v>
+        <v>65</v>
       </c>
       <c r="V57">
-        <v>2546</v>
+        <v>265</v>
       </c>
       <c r="W57">
-        <v>0.432</v>
+        <v>0.446</v>
       </c>
       <c r="X57">
-        <v>0.344</v>
+        <v>0.182</v>
       </c>
       <c r="Y57">
-        <v>0.611</v>
+        <v>0.588</v>
       </c>
       <c r="Z57">
-        <v>18.1</v>
+        <v>14.3</v>
       </c>
       <c r="AA57">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="AB57">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AC57">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD57" t="s">
         <v>150</v>
@@ -6076,76 +6052,73 @@
         <v>23</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>918</v>
+        <v>227</v>
       </c>
       <c r="I58">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="J58">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="N58">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="O58">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="P58">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="Q58">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="R58">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="S58">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="U58">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="V58">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="W58">
-        <v>0.5580000000000001</v>
-      </c>
-      <c r="X58">
+        <v>0.513</v>
+      </c>
+      <c r="Y58">
+        <v>0.905</v>
+      </c>
+      <c r="Z58">
+        <v>5.8</v>
+      </c>
+      <c r="AA58">
+        <v>1.5</v>
+      </c>
+      <c r="AB58">
+        <v>1.2</v>
+      </c>
+      <c r="AC58">
         <v>0.2</v>
-      </c>
-      <c r="Y58">
-        <v>0.759</v>
-      </c>
-      <c r="Z58">
-        <v>5.3</v>
-      </c>
-      <c r="AA58">
-        <v>1.9</v>
-      </c>
-      <c r="AB58">
-        <v>1</v>
-      </c>
-      <c r="AC58">
-        <v>0.1</v>
       </c>
       <c r="AD58" t="s">
         <v>150</v>
@@ -6168,73 +6141,73 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="H59">
-        <v>1950</v>
+        <v>398</v>
       </c>
       <c r="I59">
-        <v>256</v>
+        <v>68</v>
       </c>
       <c r="J59">
-        <v>633</v>
+        <v>155</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="O59">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="P59">
-        <v>536</v>
+        <v>121</v>
       </c>
       <c r="Q59">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="R59">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="T59">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="U59">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c r="V59">
-        <v>587</v>
+        <v>158</v>
       </c>
       <c r="W59">
-        <v>0.404</v>
+        <v>0.439</v>
       </c>
       <c r="X59">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.638</v>
+        <v>0.55</v>
       </c>
       <c r="Z59">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA59">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="AB59">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC59">
         <v>0.4</v>
@@ -6260,76 +6233,76 @@
         <v>22</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="H60">
-        <v>17983</v>
+        <v>2336</v>
       </c>
       <c r="I60">
-        <v>2962</v>
+        <v>503</v>
       </c>
       <c r="J60">
-        <v>7111</v>
+        <v>1183</v>
       </c>
       <c r="K60">
-        <v>1214</v>
+        <v>125</v>
       </c>
       <c r="L60">
-        <v>3060</v>
+        <v>334</v>
       </c>
       <c r="M60">
-        <v>956</v>
+        <v>153</v>
       </c>
       <c r="N60">
-        <v>1206</v>
+        <v>204</v>
       </c>
       <c r="O60">
-        <v>367</v>
+        <v>62</v>
       </c>
       <c r="P60">
-        <v>1774</v>
+        <v>235</v>
       </c>
       <c r="Q60">
-        <v>1296</v>
+        <v>134</v>
       </c>
       <c r="R60">
-        <v>525</v>
+        <v>62</v>
       </c>
       <c r="S60">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="T60">
-        <v>768</v>
+        <v>127</v>
       </c>
       <c r="U60">
-        <v>1275</v>
+        <v>203</v>
       </c>
       <c r="V60">
-        <v>8094</v>
+        <v>1284</v>
       </c>
       <c r="W60">
-        <v>0.417</v>
+        <v>0.425</v>
       </c>
       <c r="X60">
-        <v>0.397</v>
+        <v>0.374</v>
       </c>
       <c r="Y60">
-        <v>0.793</v>
+        <v>0.75</v>
       </c>
       <c r="Z60">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="AA60">
-        <v>12.9</v>
+        <v>15.7</v>
       </c>
       <c r="AB60">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC60">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD60" t="s">
         <v>150</v>
@@ -6352,76 +6325,76 @@
         <v>22</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="H61">
-        <v>13472</v>
+        <v>2978</v>
       </c>
       <c r="I61">
-        <v>2242</v>
+        <v>549</v>
       </c>
       <c r="J61">
-        <v>5179</v>
+        <v>1301</v>
       </c>
       <c r="K61">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="M61">
-        <v>1306</v>
+        <v>320</v>
       </c>
       <c r="N61">
-        <v>1694</v>
+        <v>435</v>
       </c>
       <c r="O61">
-        <v>798</v>
+        <v>193</v>
       </c>
       <c r="P61">
-        <v>2833</v>
+        <v>697</v>
       </c>
       <c r="Q61">
-        <v>1498</v>
+        <v>315</v>
       </c>
       <c r="R61">
-        <v>514</v>
+        <v>113</v>
       </c>
       <c r="S61">
-        <v>361</v>
+        <v>85</v>
       </c>
       <c r="T61">
-        <v>982</v>
+        <v>230</v>
       </c>
       <c r="U61">
-        <v>1106</v>
+        <v>249</v>
       </c>
       <c r="V61">
-        <v>5833</v>
+        <v>1421</v>
       </c>
       <c r="W61">
-        <v>0.433</v>
+        <v>0.422</v>
       </c>
       <c r="X61">
-        <v>0.305</v>
+        <v>0.273</v>
       </c>
       <c r="Y61">
-        <v>0.771</v>
+        <v>0.736</v>
       </c>
       <c r="Z61">
-        <v>29.7</v>
+        <v>37.7</v>
       </c>
       <c r="AA61">
-        <v>12.8</v>
+        <v>18</v>
       </c>
       <c r="AB61">
-        <v>6.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC61">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AD61" t="s">
         <v>150</v>
@@ -6444,76 +6417,76 @@
         <v>22</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>457</v>
+        <v>64</v>
       </c>
       <c r="H62">
-        <v>7295</v>
+        <v>695</v>
       </c>
       <c r="I62">
-        <v>1017</v>
+        <v>97</v>
       </c>
       <c r="J62">
-        <v>2362</v>
+        <v>220</v>
       </c>
       <c r="K62">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>391</v>
+        <v>7</v>
       </c>
       <c r="M62">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="N62">
-        <v>507</v>
+        <v>57</v>
       </c>
       <c r="O62">
-        <v>324</v>
+        <v>24</v>
       </c>
       <c r="P62">
-        <v>735</v>
+        <v>71</v>
       </c>
       <c r="Q62">
-        <v>881</v>
+        <v>135</v>
       </c>
       <c r="R62">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="S62">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="T62">
-        <v>442</v>
+        <v>69</v>
       </c>
       <c r="U62">
-        <v>717</v>
+        <v>80</v>
       </c>
       <c r="V62">
-        <v>2504</v>
+        <v>234</v>
       </c>
       <c r="W62">
-        <v>0.431</v>
+        <v>0.441</v>
       </c>
       <c r="X62">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>0.6899999999999999</v>
+        <v>0.702</v>
       </c>
       <c r="Z62">
-        <v>16</v>
+        <v>10.9</v>
       </c>
       <c r="AA62">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB62">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="AC62">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD62" t="s">
         <v>150</v>
@@ -6536,19 +6509,19 @@
         <v>23</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>640</v>
+        <v>81</v>
       </c>
       <c r="H63">
-        <v>12298</v>
+        <v>2099</v>
       </c>
       <c r="I63">
-        <v>1194</v>
+        <v>195</v>
       </c>
       <c r="J63">
-        <v>2466</v>
+        <v>381</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6557,52 +6530,52 @@
         <v>1</v>
       </c>
       <c r="M63">
-        <v>966</v>
+        <v>182</v>
       </c>
       <c r="N63">
-        <v>1469</v>
+        <v>252</v>
       </c>
       <c r="O63">
-        <v>1313</v>
+        <v>272</v>
       </c>
       <c r="P63">
-        <v>3436</v>
+        <v>641</v>
       </c>
       <c r="Q63">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="R63">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="S63">
-        <v>534</v>
+        <v>121</v>
       </c>
       <c r="T63">
-        <v>667</v>
+        <v>77</v>
       </c>
       <c r="U63">
-        <v>2116</v>
+        <v>337</v>
       </c>
       <c r="V63">
-        <v>3354</v>
+        <v>572</v>
       </c>
       <c r="W63">
-        <v>0.484</v>
+        <v>0.512</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>0.658</v>
+        <v>0.722</v>
       </c>
       <c r="Z63">
-        <v>19.2</v>
+        <v>25.9</v>
       </c>
       <c r="AA63">
-        <v>5.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB63">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="AC63">
         <v>0.3</v>
@@ -6717,40 +6690,40 @@
         <v>25</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H65">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="I65">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J65">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="K65">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L65">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M65">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N65">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O65">
         <v>32</v>
       </c>
       <c r="P65">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q65">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R65">
         <v>14</v>
@@ -6759,34 +6732,34 @@
         <v>2</v>
       </c>
       <c r="T65">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U65">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="V65">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="W65">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="X65">
-        <v>0.341</v>
+        <v>0.375</v>
       </c>
       <c r="Y65">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="Z65">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="AA65">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AB65">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AC65">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD65" t="s">
         <v>150</v>
@@ -6809,76 +6782,76 @@
         <v>22</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>689</v>
+        <v>73</v>
       </c>
       <c r="H66">
-        <v>16993</v>
+        <v>1178</v>
       </c>
       <c r="I66">
-        <v>3061</v>
+        <v>175</v>
       </c>
       <c r="J66">
-        <v>6074</v>
+        <v>359</v>
       </c>
       <c r="K66">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="M66">
-        <v>841</v>
+        <v>49</v>
       </c>
       <c r="N66">
-        <v>1172</v>
+        <v>74</v>
       </c>
       <c r="O66">
-        <v>1482</v>
+        <v>124</v>
       </c>
       <c r="P66">
-        <v>4881</v>
+        <v>349</v>
       </c>
       <c r="Q66">
-        <v>652</v>
+        <v>40</v>
       </c>
       <c r="R66">
-        <v>510</v>
+        <v>20</v>
       </c>
       <c r="S66">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="T66">
-        <v>822</v>
+        <v>49</v>
       </c>
       <c r="U66">
-        <v>1624</v>
+        <v>135</v>
       </c>
       <c r="V66">
-        <v>6984</v>
+        <v>399</v>
       </c>
       <c r="W66">
-        <v>0.504</v>
+        <v>0.487</v>
       </c>
       <c r="X66">
-        <v>0.244</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>0.718</v>
+        <v>0.662</v>
       </c>
       <c r="Z66">
-        <v>24.7</v>
+        <v>16.1</v>
       </c>
       <c r="AA66">
-        <v>10.1</v>
+        <v>5.5</v>
       </c>
       <c r="AB66">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="AC66">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD66" t="s">
         <v>150</v>
@@ -6901,19 +6874,19 @@
         <v>27</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>2050</v>
+        <v>166</v>
       </c>
       <c r="I67">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="J67">
-        <v>413</v>
+        <v>52</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6922,52 +6895,52 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="N67">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="O67">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="P67">
-        <v>516</v>
+        <v>51</v>
       </c>
       <c r="Q67">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="R67">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="S67">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="T67">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="U67">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="V67">
-        <v>473</v>
+        <v>58</v>
       </c>
       <c r="W67">
-        <v>0.477</v>
+        <v>0.462</v>
       </c>
       <c r="Y67">
-        <v>0.598</v>
+        <v>0.556</v>
       </c>
       <c r="Z67">
-        <v>12.1</v>
+        <v>5.4</v>
       </c>
       <c r="AA67">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="AB67">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AC67">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD67" t="s">
         <v>150</v>
@@ -6990,76 +6963,76 @@
         <v>22</v>
       </c>
       <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>52</v>
+      </c>
+      <c r="H68">
+        <v>508</v>
+      </c>
+      <c r="I68">
+        <v>72</v>
+      </c>
+      <c r="J68">
+        <v>161</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>37</v>
+      </c>
+      <c r="N68">
+        <v>56</v>
+      </c>
+      <c r="O68">
+        <v>41</v>
+      </c>
+      <c r="P68">
+        <v>111</v>
+      </c>
+      <c r="Q68">
+        <v>16</v>
+      </c>
+      <c r="R68">
         <v>9</v>
       </c>
-      <c r="G68">
-        <v>475</v>
-      </c>
-      <c r="H68">
-        <v>9805</v>
-      </c>
-      <c r="I68">
-        <v>1360</v>
-      </c>
-      <c r="J68">
-        <v>3092</v>
-      </c>
-      <c r="K68">
-        <v>3</v>
-      </c>
-      <c r="L68">
-        <v>24</v>
-      </c>
-      <c r="M68">
-        <v>749</v>
-      </c>
-      <c r="N68">
-        <v>1236</v>
-      </c>
-      <c r="O68">
-        <v>1587</v>
-      </c>
-      <c r="P68">
-        <v>3584</v>
-      </c>
-      <c r="Q68">
-        <v>287</v>
-      </c>
-      <c r="R68">
-        <v>204</v>
-      </c>
       <c r="S68">
-        <v>301</v>
+        <v>6</v>
       </c>
       <c r="T68">
-        <v>515</v>
+        <v>40</v>
       </c>
       <c r="U68">
-        <v>1284</v>
+        <v>92</v>
       </c>
       <c r="V68">
-        <v>3472</v>
+        <v>182</v>
       </c>
       <c r="W68">
-        <v>0.44</v>
+        <v>0.447</v>
       </c>
       <c r="X68">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="Y68">
-        <v>0.606</v>
+        <v>0.661</v>
       </c>
       <c r="Z68">
-        <v>20.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA68">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB68">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="AC68">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD68" t="s">
         <v>150</v>
@@ -7082,58 +7055,58 @@
         <v>21</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="H69">
-        <v>2918</v>
+        <v>527</v>
       </c>
       <c r="I69">
-        <v>547</v>
+        <v>93</v>
       </c>
       <c r="J69">
-        <v>1070</v>
+        <v>179</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="N69">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="O69">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="P69">
-        <v>693</v>
+        <v>131</v>
       </c>
       <c r="Q69">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="R69">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="S69">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="T69">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="U69">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="V69">
-        <v>1247</v>
+        <v>220</v>
       </c>
       <c r="W69">
-        <v>0.511</v>
+        <v>0.52</v>
       </c>
       <c r="X69">
         <v>0</v>
@@ -7142,16 +7115,16 @@
         <v>0.68</v>
       </c>
       <c r="Z69">
-        <v>11.2</v>
+        <v>7</v>
       </c>
       <c r="AA69">
-        <v>4.8</v>
+        <v>2.9</v>
       </c>
       <c r="AB69">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="AC69">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD69" t="s">
         <v>150</v>
@@ -7174,76 +7147,76 @@
         <v>22</v>
       </c>
       <c r="F70">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>746</v>
+        <v>51</v>
       </c>
       <c r="H70">
-        <v>12220</v>
+        <v>337</v>
       </c>
       <c r="I70">
-        <v>1589</v>
+        <v>53</v>
       </c>
       <c r="J70">
-        <v>3402</v>
+        <v>104</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>642</v>
+        <v>20</v>
       </c>
       <c r="N70">
-        <v>890</v>
+        <v>28</v>
       </c>
       <c r="O70">
-        <v>1281</v>
+        <v>42</v>
       </c>
       <c r="P70">
-        <v>3506</v>
+        <v>98</v>
       </c>
       <c r="Q70">
-        <v>431</v>
+        <v>16</v>
       </c>
       <c r="R70">
-        <v>393</v>
+        <v>12</v>
       </c>
       <c r="S70">
-        <v>421</v>
+        <v>13</v>
       </c>
       <c r="T70">
-        <v>545</v>
+        <v>23</v>
       </c>
       <c r="U70">
-        <v>1916</v>
+        <v>51</v>
       </c>
       <c r="V70">
-        <v>3825</v>
+        <v>127</v>
       </c>
       <c r="W70">
-        <v>0.467</v>
+        <v>0.51</v>
       </c>
       <c r="X70">
-        <v>0.111</v>
+        <v>0.5</v>
       </c>
       <c r="Y70">
-        <v>0.721</v>
+        <v>0.714</v>
       </c>
       <c r="Z70">
-        <v>16.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA70">
-        <v>5.1</v>
+        <v>2.5</v>
       </c>
       <c r="AB70">
-        <v>4.7</v>
+        <v>1.9</v>
       </c>
       <c r="AC70">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD70" t="s">
         <v>150</v>
@@ -7266,76 +7239,76 @@
         <v>22</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="H71">
-        <v>1609</v>
+        <v>162</v>
       </c>
       <c r="I71">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="J71">
-        <v>518</v>
+        <v>70</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="N71">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="O71">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="P71">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="Q71">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="R71">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="S71">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="U71">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="V71">
-        <v>591</v>
+        <v>55</v>
       </c>
       <c r="W71">
-        <v>0.456</v>
+        <v>0.3</v>
       </c>
       <c r="X71">
         <v>0</v>
       </c>
       <c r="Y71">
-        <v>0.5669999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Z71">
-        <v>15.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA71">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="AB71">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AD71" t="s">
         <v>150</v>
@@ -7358,73 +7331,73 @@
         <v>24</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="H72">
-        <v>1028</v>
+        <v>607</v>
       </c>
       <c r="I72">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="J72">
-        <v>414</v>
+        <v>245</v>
       </c>
       <c r="K72">
+        <v>8</v>
+      </c>
+      <c r="L72">
+        <v>20</v>
+      </c>
+      <c r="M72">
+        <v>35</v>
+      </c>
+      <c r="N72">
+        <v>45</v>
+      </c>
+      <c r="O72">
+        <v>34</v>
+      </c>
+      <c r="P72">
+        <v>67</v>
+      </c>
+      <c r="Q72">
+        <v>25</v>
+      </c>
+      <c r="R72">
+        <v>16</v>
+      </c>
+      <c r="S72">
         <v>13</v>
       </c>
-      <c r="L72">
-        <v>41</v>
-      </c>
-      <c r="M72">
-        <v>60</v>
-      </c>
-      <c r="N72">
-        <v>77</v>
-      </c>
-      <c r="O72">
-        <v>57</v>
-      </c>
-      <c r="P72">
-        <v>131</v>
-      </c>
-      <c r="Q72">
-        <v>46</v>
-      </c>
-      <c r="R72">
-        <v>28</v>
-      </c>
-      <c r="S72">
-        <v>25</v>
-      </c>
       <c r="T72">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="U72">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="V72">
-        <v>417</v>
+        <v>239</v>
       </c>
       <c r="W72">
-        <v>0.415</v>
+        <v>0.4</v>
       </c>
       <c r="X72">
-        <v>0.317</v>
+        <v>0.4</v>
       </c>
       <c r="Y72">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="Z72">
-        <v>8.4</v>
+        <v>9.5</v>
       </c>
       <c r="AA72">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AB72">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>0.4</v>
@@ -7450,19 +7423,19 @@
         <v>23</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>164</v>
+      </c>
+      <c r="I73">
         <v>19</v>
       </c>
-      <c r="H73">
-        <v>174</v>
-      </c>
-      <c r="I73">
-        <v>23</v>
-      </c>
       <c r="J73">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -7474,13 +7447,13 @@
         <v>16</v>
       </c>
       <c r="N73">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P73">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -7498,25 +7471,25 @@
         <v>28</v>
       </c>
       <c r="V73">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="W73">
-        <v>0.442</v>
+        <v>0.404</v>
       </c>
       <c r="X73">
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>0.615</v>
+        <v>0.667</v>
       </c>
       <c r="Z73">
-        <v>9.199999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="AA73">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AC73">
         <v>0.2</v>
